--- a/CNH.xlsx
+++ b/CNH.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32906c935fa0eb4f/models/CNH/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1112" documentId="11_F25DC773A252ABDACC104889191A52245ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD3E40E4-888F-4685-AED0-B7B840858D16}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D313D5E7-7FF9-41C3-9697-81E0AFDBF9AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="860" windowWidth="17580" windowHeight="19410" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="156">
   <si>
     <t>Revenues</t>
   </si>
@@ -505,6 +505,9 @@
   </si>
   <si>
     <t>RnD</t>
+  </si>
+  <si>
+    <t>Price</t>
   </si>
 </sst>
 </file>
@@ -587,10 +590,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -856,70 +855,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28DE315A-F4FF-44A5-BD4C-9EF1E6AE5117}">
-  <dimension ref="B2:D42"/>
+  <dimension ref="B2:M42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="K3" t="s">
+        <v>155</v>
+      </c>
+      <c r="L3">
+        <v>12.85</v>
+      </c>
+      <c r="M3" s="5">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.35">
       <c r="D12" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.35">
       <c r="D13" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
       <c r="D14" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
       <c r="D15" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.35">
       <c r="D16" t="s">
         <v>99</v>
       </c>
@@ -1058,7 +1068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A32" sqref="A32"/>
     </sheetView>
